--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H2">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I2">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J2">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>1427.526655635381</v>
+        <v>1030.437617619178</v>
       </c>
       <c r="R2">
-        <v>12847.73990071843</v>
+        <v>9273.938558572601</v>
       </c>
       <c r="S2">
-        <v>0.2480241193657604</v>
+        <v>0.2741646651393768</v>
       </c>
       <c r="T2">
-        <v>0.2480241193657604</v>
+        <v>0.2741646651393768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H3">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I3">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J3">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>762.1538629160895</v>
+        <v>644.4573048876111</v>
       </c>
       <c r="R3">
-        <v>6859.384766244804</v>
+        <v>5800.1157439885</v>
       </c>
       <c r="S3">
-        <v>0.1324196223760449</v>
+        <v>0.1714683336186549</v>
       </c>
       <c r="T3">
-        <v>0.1324196223760449</v>
+        <v>0.1714683336186549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H4">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I4">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J4">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>1714.499887571474</v>
+        <v>722.483041219989</v>
       </c>
       <c r="R4">
-        <v>15430.49898814326</v>
+        <v>6502.3473709799</v>
       </c>
       <c r="S4">
-        <v>0.2978839821231499</v>
+        <v>0.1922283481096297</v>
       </c>
       <c r="T4">
-        <v>0.2978839821231499</v>
+        <v>0.1922283481096297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H5">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I5">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J5">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>130.4896498176844</v>
+        <v>92.60991064172221</v>
       </c>
       <c r="R5">
-        <v>1174.40684835916</v>
+        <v>833.4891957754999</v>
       </c>
       <c r="S5">
-        <v>0.02267178714640001</v>
+        <v>0.02464037095068376</v>
       </c>
       <c r="T5">
-        <v>0.02267178714640001</v>
+        <v>0.02464037095068376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H6">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I6">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J6">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>1053.726580464149</v>
+        <v>732.3484907846556</v>
       </c>
       <c r="R6">
-        <v>9483.539224177339</v>
+        <v>6591.1364170619</v>
       </c>
       <c r="S6">
-        <v>0.1830786179299677</v>
+        <v>0.1948532112067239</v>
       </c>
       <c r="T6">
-        <v>0.1830786179299677</v>
+        <v>0.1948532112067238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H7">
         <v>2.766335</v>
       </c>
       <c r="I7">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J7">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>93.86298556070945</v>
+        <v>80.12727011130112</v>
       </c>
       <c r="R7">
-        <v>844.7668700463851</v>
+        <v>721.14543100171</v>
       </c>
       <c r="S7">
-        <v>0.0163081258362732</v>
+        <v>0.02131916168720082</v>
       </c>
       <c r="T7">
-        <v>0.0163081258362732</v>
+        <v>0.02131916168720081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H8">
         <v>2.766335</v>
       </c>
       <c r="I8">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J8">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
-        <v>50.11327581696946</v>
+        <v>50.11327581696944</v>
       </c>
       <c r="R8">
-        <v>451.019482352725</v>
+        <v>451.0194823527249</v>
       </c>
       <c r="S8">
-        <v>0.008706878469814012</v>
+        <v>0.01333345100030531</v>
       </c>
       <c r="T8">
-        <v>0.008706878469814012</v>
+        <v>0.01333345100030531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +959,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H9">
         <v>2.766335</v>
       </c>
       <c r="I9">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J9">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>112.7321003468978</v>
+        <v>56.18059046449055</v>
       </c>
       <c r="R9">
-        <v>1014.58890312208</v>
+        <v>505.625314180415</v>
       </c>
       <c r="S9">
-        <v>0.01958652036542669</v>
+        <v>0.01494775861115927</v>
       </c>
       <c r="T9">
-        <v>0.01958652036542669</v>
+        <v>0.01494775861115927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H10">
         <v>2.766335</v>
       </c>
       <c r="I10">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J10">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>8.579978572244444</v>
+        <v>7.201386282963886</v>
       </c>
       <c r="R10">
-        <v>77.21980715020001</v>
+        <v>64.81247654667499</v>
       </c>
       <c r="S10">
-        <v>0.001490719364964045</v>
+        <v>0.001916045789719769</v>
       </c>
       <c r="T10">
-        <v>0.001490719364964045</v>
+        <v>0.001916045789719769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H11">
         <v>2.766335</v>
       </c>
       <c r="I11">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J11">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>69.28481679595669</v>
+        <v>56.94773204445721</v>
       </c>
       <c r="R11">
-        <v>623.5633511636102</v>
+        <v>512.5295884001149</v>
       </c>
       <c r="S11">
-        <v>0.01203781772017882</v>
+        <v>0.01515186908887262</v>
       </c>
       <c r="T11">
-        <v>0.01203781772017882</v>
+        <v>0.01515186908887262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H12">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I12">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J12">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>85.18445918237678</v>
+        <v>91.3149670817258</v>
       </c>
       <c r="R12">
-        <v>766.660132641391</v>
+        <v>821.8347037355321</v>
       </c>
       <c r="S12">
-        <v>0.01480028438625108</v>
+        <v>0.02429583018331436</v>
       </c>
       <c r="T12">
-        <v>0.01480028438625108</v>
+        <v>0.02429583018331436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H13">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I13">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J13">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>45.47982650269278</v>
+        <v>57.11029622284111</v>
       </c>
       <c r="R13">
-        <v>409.318438524235</v>
+        <v>513.9926660055701</v>
       </c>
       <c r="S13">
-        <v>0.007901844685497142</v>
+        <v>0.01519512192899433</v>
       </c>
       <c r="T13">
-        <v>0.007901844685497142</v>
+        <v>0.01519512192899433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,14 +1269,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H14">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I14">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J14">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>102.3089447153031</v>
+        <v>64.02475414139089</v>
       </c>
       <c r="R14">
-        <v>920.7805024377279</v>
+        <v>576.2227872725181</v>
       </c>
       <c r="S14">
-        <v>0.01777556013828622</v>
+        <v>0.01703482576690305</v>
       </c>
       <c r="T14">
-        <v>0.01777556013828621</v>
+        <v>0.01703482576690304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H15">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I15">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J15">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>7.786677891257778</v>
+        <v>8.206873271212221</v>
       </c>
       <c r="R15">
-        <v>70.08010102132</v>
+        <v>73.86185944091</v>
       </c>
       <c r="S15">
-        <v>0.001352888171397715</v>
+        <v>0.002183571934652285</v>
       </c>
       <c r="T15">
-        <v>0.001352888171397715</v>
+        <v>0.002183571934652285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H16">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I16">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J16">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>62.87877604848069</v>
+        <v>64.89900716441755</v>
       </c>
       <c r="R16">
-        <v>565.9089844363261</v>
+        <v>584.091064479758</v>
       </c>
       <c r="S16">
-        <v>0.01092480689916075</v>
+        <v>0.01726743498380935</v>
       </c>
       <c r="T16">
-        <v>0.01092480689916075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.239677</v>
-      </c>
-      <c r="I17">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J17">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>101.7913436666667</v>
-      </c>
-      <c r="N17">
-        <v>305.374031</v>
-      </c>
-      <c r="O17">
-        <v>0.2805454758424659</v>
-      </c>
-      <c r="P17">
-        <v>0.2805454758424659</v>
-      </c>
-      <c r="Q17">
-        <v>8.132347958665221</v>
-      </c>
-      <c r="R17">
-        <v>73.19113162798701</v>
-      </c>
-      <c r="S17">
-        <v>0.001412946254181237</v>
-      </c>
-      <c r="T17">
-        <v>0.001412946254181237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.239677</v>
-      </c>
-      <c r="I18">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J18">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>54.34621166666667</v>
-      </c>
-      <c r="N18">
-        <v>163.038635</v>
-      </c>
-      <c r="O18">
-        <v>0.1497827149446808</v>
-      </c>
-      <c r="P18">
-        <v>0.1497827149446808</v>
-      </c>
-      <c r="Q18">
-        <v>4.341845657877222</v>
-      </c>
-      <c r="R18">
-        <v>39.076610920895</v>
-      </c>
-      <c r="S18">
-        <v>0.0007543694133247104</v>
-      </c>
-      <c r="T18">
-        <v>0.0007543694133247104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.239677</v>
-      </c>
-      <c r="I19">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J19">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>122.2542826666667</v>
-      </c>
-      <c r="N19">
-        <v>366.762848</v>
-      </c>
-      <c r="O19">
-        <v>0.3369430510399163</v>
-      </c>
-      <c r="P19">
-        <v>0.3369430510399163</v>
-      </c>
-      <c r="Q19">
-        <v>9.767179902232888</v>
-      </c>
-      <c r="R19">
-        <v>87.90461912009599</v>
-      </c>
-      <c r="S19">
-        <v>0.001696988413053507</v>
-      </c>
-      <c r="T19">
-        <v>0.001696988413053507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.239677</v>
-      </c>
-      <c r="I20">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J20">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>9.304706666666666</v>
-      </c>
-      <c r="N20">
-        <v>27.91412</v>
-      </c>
-      <c r="O20">
-        <v>0.02564455154382035</v>
-      </c>
-      <c r="P20">
-        <v>0.02564455154382035</v>
-      </c>
-      <c r="Q20">
-        <v>0.7433747265822221</v>
-      </c>
-      <c r="R20">
-        <v>6.69037253924</v>
-      </c>
-      <c r="S20">
-        <v>0.0001291568610585802</v>
-      </c>
-      <c r="T20">
-        <v>0.0001291568610585802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.239677</v>
-      </c>
-      <c r="I21">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J21">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>75.13712200000002</v>
-      </c>
-      <c r="N21">
-        <v>225.411366</v>
-      </c>
-      <c r="O21">
-        <v>0.2070842066291166</v>
-      </c>
-      <c r="P21">
-        <v>0.2070842066291166</v>
-      </c>
-      <c r="Q21">
-        <v>6.002879996531335</v>
-      </c>
-      <c r="R21">
-        <v>54.02591996878201</v>
-      </c>
-      <c r="S21">
-        <v>0.001042964079809314</v>
-      </c>
-      <c r="T21">
-        <v>0.001042964079809314</v>
+        <v>0.01726743498380935</v>
       </c>
     </row>
   </sheetData>
